--- a/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 8,46</t>
+          <t>-4,81; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,22</t>
+          <t>-7,55; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,23</t>
+          <t>-0,1; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,81</t>
+          <t>-2,73; 9,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,2</t>
+          <t>-0,09; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,83</t>
+          <t>-2,67; 6,21</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 33,64</t>
+          <t>-15,17; 35,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 17,41</t>
+          <t>-23,8; 20,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 35,35</t>
+          <t>-0,16; 35,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 31,15</t>
+          <t>-6,72; 29,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 27,42</t>
+          <t>-0,21; 26,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 18,61</t>
+          <t>-7,7; 20,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 11,68</t>
+          <t>-8,95; 11,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 4,4</t>
+          <t>-13,94; 3,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 18,15</t>
+          <t>-12,92; 18,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 20,6</t>
+          <t>-6,72; 19,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 10,28</t>
+          <t>-6,41; 10,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 9,02</t>
+          <t>-6,33; 9,36</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 113,19</t>
+          <t>-43,11; 116,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 46,05</t>
+          <t>-58,72; 38,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 126,21</t>
+          <t>-40,78; 133,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 160,11</t>
+          <t>-24,32; 148,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 73,18</t>
+          <t>-29,04; 81,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 62,92</t>
+          <t>-27,74; 65,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,32; -2,79</t>
+          <t>-38,22; -1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 3,25</t>
+          <t>-32,72; 4,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 4,55</t>
+          <t>-47,19; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 6,27</t>
+          <t>-43,79; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,14; -3,98</t>
+          <t>-37,08; -4,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 1,4</t>
+          <t>-30,4; 0,62</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 29,59</t>
+          <t>-100,0; 34,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,65; 40,11</t>
+          <t>-87,64; 37,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,99; 28,61</t>
+          <t>-87,27; 18,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,0; 30,58</t>
+          <t>-81,63; 24,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -6,74</t>
+          <t>-87,37; -13,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 8,13</t>
+          <t>-74,59; 8,14</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,87; 5,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,72</t>
+          <t>-10,23; -0,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,32</t>
+          <t>-1,12; 8,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 6,76</t>
+          <t>-3,55; 6,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,37</t>
+          <t>-1,32; 6,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 2,05</t>
+          <t>-5,37; 2,24</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-17,4; 24,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,27; -2,85</t>
+          <t>-34,68; -1,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 29,91</t>
+          <t>-3,18; 27,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 21,18</t>
+          <t>-9,6; 20,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 22,05</t>
+          <t>-4,0; 21,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 6,82</t>
+          <t>-16,29; 7,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 8,98</t>
+          <t>-4,2; 8,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 5,34</t>
+          <t>-7,54; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,1</t>
+          <t>-0,3; 10,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 9,48</t>
+          <t>-2,44; 8,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 8,13</t>
+          <t>-0,24; 8,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,21</t>
+          <t>-2,74; 5,6</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 35,63</t>
+          <t>-12,81; 34,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 20,83</t>
+          <t>-23,09; 19,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 35,0</t>
+          <t>-0,66; 32,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 29,82</t>
+          <t>-6,41; 27,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 26,88</t>
+          <t>-0,71; 27,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 20,04</t>
+          <t>-7,99; 18,38</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,76</t>
+          <t>-10,32; 10,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 3,93</t>
+          <t>-14,08; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 18,06</t>
+          <t>-12,16; 18,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 19,11</t>
+          <t>-6,14; 19,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 10,76</t>
+          <t>-7,54; 10,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 9,36</t>
+          <t>-6,17; 9,67</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 116,55</t>
+          <t>-49,65; 101,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 38,46</t>
+          <t>-60,66; 40,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 133,4</t>
+          <t>-42,01; 147,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 148,21</t>
+          <t>-21,39; 157,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 81,46</t>
+          <t>-32,51; 71,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 65,7</t>
+          <t>-25,22; 69,97</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,22; -1,59</t>
+          <t>-38,26; -0,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 4,15</t>
+          <t>-32,48; 4,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 3,07</t>
+          <t>-47,24; 7,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 6,97</t>
+          <t>-42,7; 8,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,08; -4,67</t>
+          <t>-34,41; -3,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 0,62</t>
+          <t>-31,48; 0,42</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,53</t>
+          <t>-100,0; 40,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 37,35</t>
+          <t>-85,82; 49,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 18,48</t>
+          <t>-88,34; 36,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,63; 24,65</t>
+          <t>-78,74; 40,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,37; -13,15</t>
+          <t>-84,23; -10,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 8,14</t>
+          <t>-75,09; 4,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,84</t>
+          <t>-4,99; 5,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,4</t>
+          <t>-10,27; -0,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,76</t>
+          <t>-2,16; 8,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,45</t>
+          <t>-4,13; 6,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,05</t>
+          <t>-1,48; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,24</t>
+          <t>-5,49; 1,98</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 24,59</t>
+          <t>-17,42; 24,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,68; -1,38</t>
+          <t>-35,67; -0,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 27,52</t>
+          <t>-5,81; 27,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 20,35</t>
+          <t>-11,33; 20,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 21,1</t>
+          <t>-4,46; 21,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 7,83</t>
+          <t>-17,14; 6,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 8,82</t>
+          <t>-4,43; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,85</t>
+          <t>-7,88; 4,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,74</t>
+          <t>-0,23; 11,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,89</t>
+          <t>-2,23; 9,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 8,58</t>
+          <t>-0,29; 8,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,6</t>
+          <t>-2,78; 5,83</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 34,69</t>
+          <t>-14,11; 33,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 19,82</t>
+          <t>-23,99; 17,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 32,7</t>
+          <t>-0,51; 35,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 27,42</t>
+          <t>-5,68; 31,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 27,7</t>
+          <t>-0,5; 27,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 18,38</t>
+          <t>-8,26; 18,61</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 10,58</t>
+          <t>-9,55; 11,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 3,78</t>
+          <t>-13,83; 4,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 18,32</t>
+          <t>-11,35; 18,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 19,73</t>
+          <t>-6,48; 20,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 10,12</t>
+          <t>-7,65; 10,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 9,67</t>
+          <t>-5,52; 9,02</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 101,53</t>
+          <t>-44,66; 113,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,66; 40,18</t>
+          <t>-61,09; 46,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 147,94</t>
+          <t>-38,15; 126,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 157,94</t>
+          <t>-24,29; 160,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 71,83</t>
+          <t>-32,73; 73,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 69,97</t>
+          <t>-25,23; 62,92</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,26; -0,14</t>
+          <t>-38,32; -2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 4,89</t>
+          <t>-32,37; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 7,01</t>
+          <t>-47,58; 4,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 8,76</t>
+          <t>-45,04; 6,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,41; -3,63</t>
+          <t>-35,14; -3,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 0,42</t>
+          <t>-30,71; 1,4</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,66</t>
+          <t>-100,0; 29,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,82; 49,8</t>
+          <t>-87,65; 40,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,34; 36,17</t>
+          <t>-87,99; 28,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,74; 40,39</t>
+          <t>-82,0; 30,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,23; -10,5</t>
+          <t>-85,26; -6,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 4,5</t>
+          <t>-76,11; 8,13</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,96</t>
+          <t>-5,03; 5,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -0,03</t>
+          <t>-10,3; -0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,54</t>
+          <t>-1,45; 9,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,58</t>
+          <t>-4,25; 6,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,13</t>
+          <t>-1,46; 6,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,98</t>
+          <t>-5,44; 2,05</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 24,45</t>
+          <t>-17,24; 26,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,67; -0,62</t>
+          <t>-34,27; -2,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 27,13</t>
+          <t>-3,76; 29,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 20,78</t>
+          <t>-11,3; 21,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 21,24</t>
+          <t>-4,21; 22,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 6,73</t>
+          <t>-16,55; 6,82</t>
         </is>
       </c>
     </row>
